--- a/aaa.xlsx
+++ b/aaa.xlsx
@@ -16,9 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version2222</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -374,6 +378,16 @@
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
